--- a/po_analysis_by_asin/B0D2V2FPS7_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2V2FPS7_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>20</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>20</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>20</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>80</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>20</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>40</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>80</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>80</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>40</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>120</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>40</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>20</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>40</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>20</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>80</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>60</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>160</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>180</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>160</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>120</v>

--- a/po_analysis_by_asin/B0D2V2FPS7_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2V2FPS7_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -621,7 +622,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -671,6 +672,411 @@
       </c>
       <c r="B7" t="n">
         <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.101575294931065</v>
+      </c>
+      <c r="D2" t="n">
+        <v>69.34100575817709</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>36</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.471164277202467</v>
+      </c>
+      <c r="D3" t="n">
+        <v>72.57888785513055</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.015830122124771</v>
+      </c>
+      <c r="D4" t="n">
+        <v>73.076973424157</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5774569914005367</v>
+      </c>
+      <c r="D5" t="n">
+        <v>73.62299833926775</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>39</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1603969116946179</v>
+      </c>
+      <c r="D6" t="n">
+        <v>73.40539477549659</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>39</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.954054558003199</v>
+      </c>
+      <c r="D7" t="n">
+        <v>73.82694142651799</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.829606299366305</v>
+      </c>
+      <c r="D8" t="n">
+        <v>74.73621383781339</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>41</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.007788115915539</v>
+      </c>
+      <c r="D9" t="n">
+        <v>77.21660776781495</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>42</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.249013504470854</v>
+      </c>
+      <c r="D10" t="n">
+        <v>76.13671947397582</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>42</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.647751644207788</v>
+      </c>
+      <c r="D11" t="n">
+        <v>77.56787030197825</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>43</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.10500301935176</v>
+      </c>
+      <c r="D12" t="n">
+        <v>78.12710506093343</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>44</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8.78040608265883</v>
+      </c>
+      <c r="D13" t="n">
+        <v>78.10006353012172</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>46</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9.089537848473316</v>
+      </c>
+      <c r="D14" t="n">
+        <v>80.34900536360811</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>46</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10.20145134424669</v>
+      </c>
+      <c r="D15" t="n">
+        <v>83.12248449084471</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>48</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14.85512551984903</v>
+      </c>
+      <c r="D16" t="n">
+        <v>83.74859436356336</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>48</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14.71898837644669</v>
+      </c>
+      <c r="D17" t="n">
+        <v>83.90512770817553</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>49</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14.77125500309396</v>
+      </c>
+      <c r="D18" t="n">
+        <v>86.89641574074464</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>49</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12.35714399086269</v>
+      </c>
+      <c r="D19" t="n">
+        <v>84.43123787826966</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>50</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11.98972951371482</v>
+      </c>
+      <c r="D20" t="n">
+        <v>85.26162234284429</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>51</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14.22618215339896</v>
+      </c>
+      <c r="D21" t="n">
+        <v>86.37653071384349</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>51</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17.48404096415989</v>
+      </c>
+      <c r="D22" t="n">
+        <v>87.37332788197553</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>52</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15.89319715730741</v>
+      </c>
+      <c r="D23" t="n">
+        <v>88.39123981236874</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>53</v>
+      </c>
+      <c r="C24" t="n">
+        <v>18.70157432984298</v>
+      </c>
+      <c r="D24" t="n">
+        <v>88.50130600558266</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>53</v>
+      </c>
+      <c r="C25" t="n">
+        <v>15.7195759756893</v>
+      </c>
+      <c r="D25" t="n">
+        <v>90.03714333571145</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>20.50933734863232</v>
+      </c>
+      <c r="D26" t="n">
+        <v>90.55330657005321</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>54</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20.0998940673528</v>
+      </c>
+      <c r="D27" t="n">
+        <v>88.6711998738605</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D2V2FPS7_po_data.xlsx
+++ b/po_analysis_by_asin/B0D2V2FPS7_po_data.xlsx
@@ -685,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,16 +704,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -722,12 +712,6 @@
       <c r="B2" t="n">
         <v>34</v>
       </c>
-      <c r="C2" t="n">
-        <v>-1.101575294931065</v>
-      </c>
-      <c r="D2" t="n">
-        <v>69.34100575817709</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -736,12 +720,6 @@
       <c r="B3" t="n">
         <v>36</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.471164277202467</v>
-      </c>
-      <c r="D3" t="n">
-        <v>72.57888785513055</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -750,12 +728,6 @@
       <c r="B4" t="n">
         <v>37</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.015830122124771</v>
-      </c>
-      <c r="D4" t="n">
-        <v>73.076973424157</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -764,12 +736,6 @@
       <c r="B5" t="n">
         <v>38</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.5774569914005367</v>
-      </c>
-      <c r="D5" t="n">
-        <v>73.62299833926775</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -778,12 +744,6 @@
       <c r="B6" t="n">
         <v>39</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.1603969116946179</v>
-      </c>
-      <c r="D6" t="n">
-        <v>73.40539477549659</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -792,12 +752,6 @@
       <c r="B7" t="n">
         <v>39</v>
       </c>
-      <c r="C7" t="n">
-        <v>4.954054558003199</v>
-      </c>
-      <c r="D7" t="n">
-        <v>73.82694142651799</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -806,12 +760,6 @@
       <c r="B8" t="n">
         <v>40</v>
       </c>
-      <c r="C8" t="n">
-        <v>6.829606299366305</v>
-      </c>
-      <c r="D8" t="n">
-        <v>74.73621383781339</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -820,12 +768,6 @@
       <c r="B9" t="n">
         <v>41</v>
       </c>
-      <c r="C9" t="n">
-        <v>4.007788115915539</v>
-      </c>
-      <c r="D9" t="n">
-        <v>77.21660776781495</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -834,12 +776,6 @@
       <c r="B10" t="n">
         <v>42</v>
       </c>
-      <c r="C10" t="n">
-        <v>6.249013504470854</v>
-      </c>
-      <c r="D10" t="n">
-        <v>76.13671947397582</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -848,12 +784,6 @@
       <c r="B11" t="n">
         <v>42</v>
       </c>
-      <c r="C11" t="n">
-        <v>7.647751644207788</v>
-      </c>
-      <c r="D11" t="n">
-        <v>77.56787030197825</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -862,12 +792,6 @@
       <c r="B12" t="n">
         <v>43</v>
       </c>
-      <c r="C12" t="n">
-        <v>6.10500301935176</v>
-      </c>
-      <c r="D12" t="n">
-        <v>78.12710506093343</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -876,12 +800,6 @@
       <c r="B13" t="n">
         <v>44</v>
       </c>
-      <c r="C13" t="n">
-        <v>8.78040608265883</v>
-      </c>
-      <c r="D13" t="n">
-        <v>78.10006353012172</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -890,12 +808,6 @@
       <c r="B14" t="n">
         <v>46</v>
       </c>
-      <c r="C14" t="n">
-        <v>9.089537848473316</v>
-      </c>
-      <c r="D14" t="n">
-        <v>80.34900536360811</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -904,12 +816,6 @@
       <c r="B15" t="n">
         <v>46</v>
       </c>
-      <c r="C15" t="n">
-        <v>10.20145134424669</v>
-      </c>
-      <c r="D15" t="n">
-        <v>83.12248449084471</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -918,12 +824,6 @@
       <c r="B16" t="n">
         <v>48</v>
       </c>
-      <c r="C16" t="n">
-        <v>14.85512551984903</v>
-      </c>
-      <c r="D16" t="n">
-        <v>83.74859436356336</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -932,12 +832,6 @@
       <c r="B17" t="n">
         <v>48</v>
       </c>
-      <c r="C17" t="n">
-        <v>14.71898837644669</v>
-      </c>
-      <c r="D17" t="n">
-        <v>83.90512770817553</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -946,12 +840,6 @@
       <c r="B18" t="n">
         <v>49</v>
       </c>
-      <c r="C18" t="n">
-        <v>14.77125500309396</v>
-      </c>
-      <c r="D18" t="n">
-        <v>86.89641574074464</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -960,12 +848,6 @@
       <c r="B19" t="n">
         <v>49</v>
       </c>
-      <c r="C19" t="n">
-        <v>12.35714399086269</v>
-      </c>
-      <c r="D19" t="n">
-        <v>84.43123787826966</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -974,12 +856,6 @@
       <c r="B20" t="n">
         <v>50</v>
       </c>
-      <c r="C20" t="n">
-        <v>11.98972951371482</v>
-      </c>
-      <c r="D20" t="n">
-        <v>85.26162234284429</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -988,12 +864,6 @@
       <c r="B21" t="n">
         <v>51</v>
       </c>
-      <c r="C21" t="n">
-        <v>14.22618215339896</v>
-      </c>
-      <c r="D21" t="n">
-        <v>86.37653071384349</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1002,12 +872,6 @@
       <c r="B22" t="n">
         <v>51</v>
       </c>
-      <c r="C22" t="n">
-        <v>17.48404096415989</v>
-      </c>
-      <c r="D22" t="n">
-        <v>87.37332788197553</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1016,12 +880,6 @@
       <c r="B23" t="n">
         <v>52</v>
       </c>
-      <c r="C23" t="n">
-        <v>15.89319715730741</v>
-      </c>
-      <c r="D23" t="n">
-        <v>88.39123981236874</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1030,12 +888,6 @@
       <c r="B24" t="n">
         <v>53</v>
       </c>
-      <c r="C24" t="n">
-        <v>18.70157432984298</v>
-      </c>
-      <c r="D24" t="n">
-        <v>88.50130600558266</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1044,12 +896,6 @@
       <c r="B25" t="n">
         <v>53</v>
       </c>
-      <c r="C25" t="n">
-        <v>15.7195759756893</v>
-      </c>
-      <c r="D25" t="n">
-        <v>90.03714333571145</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1058,12 +904,6 @@
       <c r="B26" t="n">
         <v>54</v>
       </c>
-      <c r="C26" t="n">
-        <v>20.50933734863232</v>
-      </c>
-      <c r="D26" t="n">
-        <v>90.55330657005321</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1071,12 +911,6 @@
       </c>
       <c r="B27" t="n">
         <v>54</v>
-      </c>
-      <c r="C27" t="n">
-        <v>20.0998940673528</v>
-      </c>
-      <c r="D27" t="n">
-        <v>88.6711998738605</v>
       </c>
     </row>
   </sheetData>
